--- a/用例数据/深A/深圳转托管/清算结果.xlsx
+++ b/用例数据/深A/深圳转托管/清算结果.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\深圳转托管\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08C505F-2B8C-4059-8FF8-96CD2FB82C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总数据 " sheetId="1" r:id="rId1"/>
@@ -1920,7 +1921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2060,7 +2061,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2093,9 +2094,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2128,6 +2146,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2303,7 +2338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ES120"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -14105,7 +14140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15386,7 +15421,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DW4"/>
+  <autoFilter ref="A1:DW4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15394,7 +15429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:ER5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17651,11 +17686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CH8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="A5" activeCellId="2" sqref="A3:XFD3 E5 A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19807,21 +19842,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CH8"/>
+  <autoFilter ref="A1:CH8" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:CH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -21124,10 +21163,6 @@
       </c>
     </row>
     <row r="6" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21136,11 +21171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:EI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
